--- a/My Stuff/Data Warehouse.xlsx
+++ b/My Stuff/Data Warehouse.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documentation\My Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664E7B44-900E-4980-A481-E06D0501E522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED005C8-A4FD-4CEC-85DA-D84E3A759EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37E22F03-64D2-40AD-A845-822DD7D868FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{37E22F03-64D2-40AD-A845-822DD7D868FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -105,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="67">
   <si>
     <t>ETL_Staging</t>
   </si>
@@ -207,13 +208,112 @@
   </si>
   <si>
     <t>If I wanted to know the the current percentage of email that had a particular subscription over time then I would use DW. But I would have to know the logic of invalid email and implement in my analysis</t>
+  </si>
+  <si>
+    <t>How are dimension and facts updated from ETL_Staging?</t>
+  </si>
+  <si>
+    <t>Each row in the related fact/dimension table has a unique key based on combination of market, source and source unique id. The most recent row for that combination is retrieved and then it is checked if it has changed. If it has a new record is added</t>
+  </si>
+  <si>
+    <t>ETL_Staging.etl.Contact</t>
+  </si>
+  <si>
+    <t>SourceContact</t>
+  </si>
+  <si>
+    <t>AGR</t>
+  </si>
+  <si>
+    <t>Eloqua</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>joe@joe.com</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Perks</t>
+  </si>
+  <si>
+    <t>CreateDate</t>
+  </si>
+  <si>
+    <t>LastUpdatedDate</t>
+  </si>
+  <si>
+    <t>DimContact</t>
+  </si>
+  <si>
+    <t>SourceCreateDate</t>
+  </si>
+  <si>
+    <t>SourceLastUpdatedDate</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Most sources were incremental so only supplied changed records. This reduced the volume of records but I could not assume that they were necessarilly updated.</t>
+  </si>
+  <si>
+    <t>Perkins</t>
+  </si>
+  <si>
+    <t>Example Contact</t>
+  </si>
+  <si>
+    <t>Example Membership</t>
+  </si>
+  <si>
+    <t>ETL_Staging.etl.Memberhip</t>
+  </si>
+  <si>
+    <t>MembershipStatus</t>
+  </si>
+  <si>
+    <t>ProductCode</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>FWI</t>
+  </si>
+  <si>
+    <t>FactMembership</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>CurrentRecord</t>
+  </si>
+  <si>
+    <t>Join from Dim to Fact on the unique key but also joining on the "CurrentRecord" flag</t>
+  </si>
+  <si>
+    <t>IsCurrent flags were all updated at the end of the load process</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +335,22 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -244,7 +360,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -252,14 +368,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,8 +599,8 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">5110 1641,'0'64,"4"-1,2 1,9 28,-1-3,-4 1,-2 56,-9 185,-2-119,3 699,0-886</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3078">7571 1641,'-1'10,"0"0,0 0,-1 0,0 0,-1-1,0 1,0-1,-1 1,-1-1,1 0,-6 7,-10 12,-1 0,-20 20,1-1,-117 136,-23 29,142-160,-13 27,-28 40,-15 5,-54 50,137-162,-28 30,-31 25,54-54,0-1,-1-1,0 0,-1-1,0 0,-12 3,-96 34,50-21,2 4,1 3,-64 40,78-37,34-23,1 1,0 2,2 0,-1 2,2 0,0 1,2 1,-12 15,-60 92,74-106,1-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34256.13">5216 1641,'6'0,"1"1,0-1,0 2,0-1,0 0,-1 1,1 1,-1-1,1 1,-1 0,5 3,4 5,0-1,-1 2,9 9,45 35,-34-33,70 43,26 9,-64-37,49 39,-46-30,32 14,2-3,78 41,-87-51,84 60,-132-74,-2 1,18 20,-12-9,28 17,-8-9,16 21,-21-17,25 13,-51-40,-1 2,-2 1,-2 1,-1 2,-1 2,15 26,25 28,-50-68,-1 2,-1 1,13 24,-21-29</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36287.76">11486 1588,'-5'2,"0"0,0 0,0 0,0 0,1 1,-1 0,1 0,0 0,-4 4,-2 1,-87 72,65-51,-2-2,-26 17,-95 46,-60 20,-60 33,147-72,-107 43,57-36,59-23,-2-6,-53 11,10-7,2 6,3 8,-38 27,140-63,2 3,1 3,1 1,3 3,1 2,2 2,-9 14,-18 34,50-60,-1-2,-2 0,-2-1,12-14,0 0,-1-2,-1 0,0-2,-1 0,-1-1,0 0,-143 58,132-56</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34256.12">5216 1641,'6'0,"1"1,0-1,0 2,0-1,0 0,-1 1,1 1,-1-1,1 1,-1 0,5 3,4 5,0-1,-1 2,9 9,45 35,-34-33,70 43,26 9,-64-37,49 39,-46-30,32 14,2-3,78 41,-87-51,84 60,-132-74,-2 1,18 20,-12-9,28 17,-8-9,16 21,-21-17,25 13,-51-40,-1 2,-2 1,-2 1,-1 2,-1 2,15 26,25 28,-50-68,-1 2,-1 1,13 24,-21-29</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36287.75">11486 1588,'-5'2,"0"0,0 0,0 0,0 0,1 1,-1 0,1 0,0 0,-4 4,-2 1,-87 72,65-51,-2-2,-26 17,-95 46,-60 20,-60 33,147-72,-107 43,57-36,59-23,-2-6,-53 11,10-7,2 6,3 8,-38 27,140-63,2 3,1 3,1 1,3 3,1 2,2 2,-9 14,-18 34,50-60,-1-2,-2 0,-2-1,12-14,0 0,-1-2,-1 0,0-2,-1 0,-1-1,0 0,-143 58,132-56</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40386.51">7915 1614,'0'13,"2"-1,0 1,0-1,1 1,0-1,1 0,1 0,2 4,53 95,-28-54,88 181,39 126,-136-313,3-1,2-1,19 24,33 56,-19-12,10 38,-45-94,3-1,2-2,3-1,2-1,3-1,7 20,-34-52</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="86580.5">4819 1641,'-2'5,"-1"0,1 0,-1-1,0 1,0-1,0 0,0 0,-1 0,1 0,-1-1,0 1,-1 0,-6 6,-75 75,37-38,2 2,-25 36,-352 458,379-489,-36 35,-5 5,22-23,-3-2,-17 9,-135 96,182-142,-28 21,2 4,3 2,-22 31,69-75,0 0,-1-1,-1 0,0-1,-1-1,-5 2,-28 22,19-14,0-1,-7 2,14-10,2-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="100810.95">15270 1614,'-7'11,"1"-1,-1 0,-1-1,0 0,0 0,-1 0,0-1,-6 4,-83 54,87-59,-34 21,-104 66,-5-7,-101 40,-105 8,-234 50,494-156,-22 9,2 5,2 5,2 5,-74 49,39-21,-108 39,29-15,42-9,-13 17,103-51,3 4,-70 64,36-17,107-92</inkml:trace>
@@ -471,14 +610,14 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="130919.43">189 1641,'0'898,"-4"-829,-3 0,-3 0,-3-1,-4 2,9-33,-76 288,72-277,3-16,1 0,2 0,1 1,2 0,1 6,4 171,-2-187</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="148382.65">5401 1720,'2'4,"0"-1,0 0,0 0,1 0,0 0,0-1,-1 1,1-1,1 1,-1-1,0 0,1 0,-1-1,3 2,9 6,70 45,3-4,70 28,-98-49,270 123,-103-67,2-11,4-9,57 1,65-10,-26-6,-285-39,-1 2,0 2,0 2,85 28,473 101,227 10,-600-114,189 63,-71-13,282 35,-426-89,-67-11,54 1,-72-17,198 24,727 117,-383-58,170 23,-685-103,-115-13</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="150989.25">9079 1614,'16'2,"0"1,0 0,0 1,-1 0,1 1,-1 1,0 1,8 5,62 23,566 150,-250-75,783 192,-1123-285,-2 2,0 3,-1 2,9 8,95 39,179 46,44-4,108 34,-463-138,-6-1,0 0,0 1,12 8,-30-13,0-1,0 1,0 1,0-1,0 1,-1 0,0 0,0 1,-1-1,1 1,-1 0,0 0,-1 1,1 1,0-1,1 1,-1-1,1 0,1 0,-1 0,1-1,0 0,7 5,60 43,-39-31,17 15,2-3,1-2,2-3,1-2,53 18,-8-13,-12-5,-1 4,8 9,-82-34,49 24,2-3,0-3,21 3,16-12,-24-6,-56-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="167051.89">4634 1032,'40'0,"0"-1,0-3,0-1,-1-2,0-2,0-1,-1-2,0-2,24-13,44-21,3 5,95-26,175-25,-337 80,-1 3,2 1,-1 2,1 2,37-1,3 2,0-3,0-5,46-13,-7 1,5 6,14 9,0 6,22 7,11 0,-64-2,409-8,-375-2,0-7,85-21,-172 29,0 2,0 3,1 2,23 5,21-2,2590 0,-1497-3,-1104-2,30-8,5 0,-85 10,0 1,0 3,0 1,-1 2,25 7,57 19,17 12,25 7,-143-43,0 0,0 1,-1 1,16 11,-13-8,0 0,0-2,6 1,41 16,22 15,-22-10,19 4,-10-12,39 6,29 9,-112-28,-1 2,24 15,-30-14,2-2,-1 0,21 4,-29-10,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="167051.88">4634 1032,'40'0,"0"-1,0-3,0-1,-1-2,0-2,0-1,-1-2,0-2,24-13,44-21,3 5,95-26,175-25,-337 80,-1 3,2 1,-1 2,1 2,37-1,3 2,0-3,0-5,46-13,-7 1,5 6,14 9,0 6,22 7,11 0,-64-2,409-8,-375-2,0-7,85-21,-172 29,0 2,0 3,1 2,23 5,21-2,2590 0,-1497-3,-1104-2,30-8,5 0,-85 10,0 1,0 3,0 1,-1 2,25 7,57 19,17 12,25 7,-143-43,0 0,0 1,-1 1,16 11,-13-8,0 0,0-2,6 1,41 16,22 15,-22-10,19 4,-10-12,39 6,29 9,-112-28,-1 2,24 15,-30-14,2-2,-1 0,21 4,-29-10,-5 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-209024.78">11063 0,'-31'2,"0"2,1 0,0 2,-20 7,-68 13,-161 3,-212-9,238-13,-1286 45,884-8,606-36,-1 2,2 3,0 1,-23 12,-73 21,-30-4,-67 19,190-46,0 2,2 3,-28 15,-15 22,61-36,-2-2,-17 8,-235 93,178-80,1 4,3 6,-91 59,56-11,116-85</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-207076.85">11354 53,'1971'0,"-1954"-1,0 1,0 1,-1 0,1 1,-1 1,1 0,-1 2,0-1,0 2,4 2,27 11,0-2,2-2,0-2,0-3,32 3,91 20,64 28,156 63,-345-103,-2 2,-1 2,-1 2,24 20,-9-7,63 33,13 0,-37-18,20 3,-30-4,-69-45</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="76885.32">8179 4260,'1'255,"-3"279,-7-412,-7 16,-9 111,22 151,4-252,-3-117,-1 1,-6 25,4-23,0-1,2 11,1-15,-1 0,-5 17,0-3,5-20</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="70339.47">2967 4287,'4'0,"2"0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="73021.95">3125 4287,'1'3,"1"-1,-1 0,0 1,1-1,-1 1,0 0,-1-1,1 1,0 0,-1 0,1-1,-1 1,0 0,0 0,0 0,-1 0,1-1,0 1,-1 0,0 0,0-1,0 1,0 0,0-1,0 1,-1-1,0 2,-7 12,0 0,-1-1,-9 11,-70 79,-5-3,-75 61,87-86,-888 832,797-719,152-173,0 0,-1-2,-1 0,0-2,-1-1,-1 0,0-2,-54 28,-90 56,18-10,-38 10,184-92,-2 2,0-1,0 0,0 0,-1-1,1 1,-1-2,0 1,1-1,-1-1,-6 1,-3-4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="74772.08">5639 4260,'-14'26,"-2"-2,0 0,-1 0,-1-2,-13 12,-32 30,-11 4,-236 199,-176 164,25 53,430-449,13-13,-1-1,-2-1,-21 17,-40 20,-56 29,53-35,-51 42,91-65,-10 10,44-27</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="80250.99">12148 4260,'-41'1,"1"2,0 2,0 1,1 2,-1 2,-8 5,-1458 410,1372-389,-684 168,-77-23,-623 49,389-63,761-103,-270 85,464-104,81-22,0 3,-74 33,150-51,-38 14,1 3,1 1,2 4,-32 23,79-48,-1-1,1 1,-1 0,1 1,1-1,-1 1,1 0,0 0,0 0,1 0,0 0,0 1,0-1,1 1,0-1,0 1,0 3,1-1,-2 0,1-1,-1 1,-1 0,0-1,0 1,0-1,-1 0,-1 0,0 0,-12 14,-1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="80250.98">12148 4260,'-41'1,"1"2,0 2,0 1,1 2,-1 2,-8 5,-1458 410,1372-389,-684 168,-77-23,-623 49,389-63,761-103,-270 85,464-104,81-22,0 3,-74 33,150-51,-38 14,1 3,1 1,2 4,-32 23,79-48,-1-1,1 1,-1 0,1 1,1-1,-1 1,1 0,0 0,0 0,1 0,0 0,0 1,0-1,1 1,0-1,0 1,0 3,1-1,-2 0,1-1,-1 1,-1 0,0-1,0 1,0-1,-1 0,-1 0,0 0,-12 14,-1-3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="97098.22">12492 4260,'3'1,"0"-1,1 1,-1-1,0 1,1 0,-1 0,0 1,0-1,0 0,0 1,0 0,0 0,-1 0,1 0,0 0,40 44,-35-37,0 0,0 0,0-1,10 7,7-2,0-1,2-1,-1-2,1 0,0-1,1-2,6 0,37 10,404 88,-392-90,270 51,-245-41,-2 6,27 14,-106-33,0 1,-1 1,-1 1,0 2,-1 0,0 1,-2 2,0 0,15 19,35 29,4-4,1-2,4-5,46 24,-21-15,2 0,-4 4,10 15,-78-59,1-2,1-1,1-1,1-3,0-1,2-1,12 5,184 79,-218-89,0 1,0 1,-2 1,1 1,-2 0,0 1,14 18,17 14,9 0,19 18,-69-59,0 0,-1 0,0 1,-1 0,0 0,0 0,-1 1,0-1,0 1,2 11</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="99348.29">15799 4207,'-9'2,"1"0,-1 0,1 0,0 1,0 1,0-1,0 1,1 1,-1-1,1 1,0 1,-3 3,-32 20,-143 66,-175 63,84-40,40-14,-4-11,-56 6,78-35,4 9,-118 62,246-90,-12 12,-47 26,-275 156,203-112,95-53,3 6,4 4,-75 74,121-86,49-49,-2-1,-21 18,6-7,23-17</inkml:trace>
 </inkml:ink>
@@ -783,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383651D2-30CC-45CF-A004-E177497EE251}">
   <dimension ref="A2:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,4 +1110,623 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C8C828-9453-47A6-8CA8-5B9ED3009FEB}">
+  <dimension ref="A1:J54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4333</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="4">
+        <v>43831</v>
+      </c>
+      <c r="H13" s="4">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4333</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="4">
+        <v>43831</v>
+      </c>
+      <c r="H17" s="4">
+        <v>44002</v>
+      </c>
+      <c r="I17" s="4">
+        <v>44004</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4333</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="4">
+        <v>43831</v>
+      </c>
+      <c r="H23" s="4">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4333</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="4">
+        <v>43831</v>
+      </c>
+      <c r="H27" s="4">
+        <v>44002</v>
+      </c>
+      <c r="I27" s="6">
+        <v>44005</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4333</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="4">
+        <v>43831</v>
+      </c>
+      <c r="H28" s="4">
+        <v>44002</v>
+      </c>
+      <c r="I28" s="4">
+        <v>44004</v>
+      </c>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4333</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="4">
+        <v>43831</v>
+      </c>
+      <c r="G35" s="4">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4333</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="4">
+        <v>43831</v>
+      </c>
+      <c r="G39" s="4">
+        <v>44002</v>
+      </c>
+      <c r="H39" s="4">
+        <v>44004</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4333</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="4">
+        <v>43831</v>
+      </c>
+      <c r="G45" s="4">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4333</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="4">
+        <v>43831</v>
+      </c>
+      <c r="G49" s="4">
+        <v>44005</v>
+      </c>
+      <c r="H49" s="6">
+        <v>44005</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4333</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="4">
+        <v>43831</v>
+      </c>
+      <c r="G50" s="4">
+        <v>44002</v>
+      </c>
+      <c r="H50" s="4">
+        <v>44004</v>
+      </c>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D13" r:id="rId1" xr:uid="{586E7456-B6FC-4243-B291-1FE238333E94}"/>
+    <hyperlink ref="D17" r:id="rId2" xr:uid="{3DDCA63F-ABCB-4CF4-A1AB-70AB4FABC786}"/>
+    <hyperlink ref="D23" r:id="rId3" xr:uid="{9CC4F8A6-97EE-4298-8286-B42D0CA81359}"/>
+    <hyperlink ref="D28" r:id="rId4" xr:uid="{833EE765-81D1-4626-ADFF-608DA758E5E1}"/>
+    <hyperlink ref="D27" r:id="rId5" xr:uid="{9B31293C-F921-46E7-B378-369AE6E99335}"/>
+    <hyperlink ref="D35" r:id="rId6" display="joe@joe.com" xr:uid="{06298435-F6AC-4BC0-97F4-81E865AB6B3A}"/>
+    <hyperlink ref="D39" r:id="rId7" display="joe@joe.com" xr:uid="{16FC757C-6123-4DC0-B4E2-89885426C623}"/>
+    <hyperlink ref="D45" r:id="rId8" display="joe@joe.com" xr:uid="{83598E0A-32B4-4CDA-BC63-D9F0FDDF8A58}"/>
+    <hyperlink ref="D50" r:id="rId9" display="joe@joe.com" xr:uid="{964CC3CF-5A60-4E20-8C2F-0B0E371B7467}"/>
+    <hyperlink ref="D49" r:id="rId10" display="joe@joe.com" xr:uid="{E1993723-3D65-40BE-BBAC-8056EA0EA481}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId11"/>
+</worksheet>
 </file>